--- a/rp/Excel/Hip_臀部.xlsx
+++ b/rp/Excel/Hip_臀部.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t xml:space="preserve">Int</t>
   </si>
@@ -51,10 +51,25 @@
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">光束拖尾</t>
+    <t xml:space="preserve">尾巴</t>
   </si>
   <si>
-    <t xml:space="preserve">彩虹拖尾</t>
+    <t xml:space="preserve">0|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孔雀尾巴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0|-90|0|90|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0|-90|0|-90|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狐狸尾巴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人鱼尾巴</t>
   </si>
 </sst>
 </file>
@@ -64,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -100,6 +115,13 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -146,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +182,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,10 +209,10 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -310,9 +336,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>88442</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>136179</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
@@ -338,12 +366,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>88824</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>292600</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
@@ -365,11 +395,21 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>136173</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -388,11 +428,21 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>453459</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -411,11 +461,21 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>453460</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -434,11 +494,21 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>404432</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -457,11 +527,21 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>226476</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -480,11 +560,21 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>493583</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -503,11 +593,21 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>323388</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>

--- a/rp/Excel/Hip_臀部.xlsx
+++ b/rp/Excel/Hip_臀部.xlsx
@@ -1,220 +1,1269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Int</t>
+    <t>Int</t>
   </si>
   <si>
-    <t xml:space="preserve">String</t>
+    <t>String</t>
   </si>
   <si>
-    <t xml:space="preserve">String[]</t>
+    <t>String[]</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe</t>
+    <t>Describe</t>
   </si>
   <si>
-    <t xml:space="preserve">AssetId</t>
+    <t>AssetId</t>
   </si>
   <si>
-    <t xml:space="preserve">Transform</t>
+    <t>Transform</t>
   </si>
   <si>
-    <t xml:space="preserve">SexType</t>
+    <t>SexType</t>
   </si>
   <si>
-    <t xml:space="preserve">0-Common
+    <t>0-Common
 1-Male
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">尾巴</t>
+    <t>尾巴</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0|0|0|0|1|1|1</t>
+    <t>0|0|0|0|0|0|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">孔雀尾巴</t>
+    <t>孔雀尾巴</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0|-90|0|90|1|1|1</t>
+    <t>0|0|0|-90|0|90|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|0|-90|0|-90|1|1|1</t>
+    <t>0|0|0|-90|0|-90|1|1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">狐狸尾巴</t>
+    <t>狐狸尾巴</t>
   </si>
   <si>
-    <t xml:space="preserve">人鱼尾巴</t>
+    <t>人鱼尾巴</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.02734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -247,7 +1296,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -280,7 +1329,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="38.25" spans="1:21">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -305,7 +1354,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -328,20 +1377,20 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>136179</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
@@ -361,20 +1410,20 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>292600</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
@@ -394,20 +1443,20 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>136173</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
@@ -427,20 +1476,20 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>453459</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
@@ -460,20 +1509,20 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>453460</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
@@ -493,20 +1542,20 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>404432</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
@@ -526,20 +1575,20 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>226476</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
@@ -559,20 +1608,20 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>493583</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
@@ -592,20 +1641,20 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>323388</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
@@ -625,12 +1674,20 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="1">
+        <v>404432</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -648,12 +1705,20 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1">
+        <v>136172</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -671,12 +1736,20 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1">
+        <v>136182</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -694,12 +1767,20 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1">
+        <v>136174</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -717,12 +1798,20 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1">
+        <v>136162</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -740,12 +1829,20 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1">
+        <v>212788</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -763,12 +1860,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1">
+        <v>213045</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -786,12 +1891,20 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1">
+        <v>212598</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -809,12 +1922,20 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1">
+        <v>213046</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -832,12 +1953,20 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1">
+        <v>212911</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -855,12 +1984,20 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1">
+        <v>212761</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -878,12 +2015,20 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1">
+        <v>212762</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -901,12 +2046,20 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="1">
+        <v>212599</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -924,12 +2077,20 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="1">
+        <v>212786</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -947,12 +2108,20 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="1">
+        <v>215996</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -970,7 +2139,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:21">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -993,7 +2162,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:21">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1016,7 +2185,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:21">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1039,7 +2208,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:21">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1062,7 +2231,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:21">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1085,7 +2254,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:21">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1108,7 +2277,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:21">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1131,7 +2300,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:21">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1154,7 +2323,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:21">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1177,7 +2346,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:21">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1200,7 +2369,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:21">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1223,7 +2392,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:21">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1246,7 +2415,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:21">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1269,7 +2438,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:21">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1292,7 +2461,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:21">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1315,7 +2484,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:21">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1338,7 +2507,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:21">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1361,7 +2530,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:21">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1384,7 +2553,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:21">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1407,7 +2576,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:21">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1430,7 +2599,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:21">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1453,7 +2622,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:21">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1476,7 +2645,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:21">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1499,7 +2668,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:21">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1522,7 +2691,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:21">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1545,7 +2714,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:21">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1568,7 +2737,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:21">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1591,7 +2760,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:21">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1614,7 +2783,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:21">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1637,7 +2806,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:21">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1660,7 +2829,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:21">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1683,7 +2852,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:21">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1706,7 +2875,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:21">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1729,7 +2898,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:21">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1752,7 +2921,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:21">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1775,7 +2944,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:21">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1798,7 +2967,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:21">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1821,7 +2990,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:21">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1844,7 +3013,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:21">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1867,7 +3036,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:21">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1890,7 +3059,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:21">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1913,7 +3082,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:21">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1936,7 +3105,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:21">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1959,7 +3128,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:21">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1982,7 +3151,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:21">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2005,7 +3174,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:21">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2028,7 +3197,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:21">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2051,7 +3220,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:21">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2074,7 +3243,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:21">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2097,7 +3266,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:21">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2120,7 +3289,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:21">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2143,7 +3312,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:21">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2166,7 +3335,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:21">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2189,7 +3358,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:21">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2212,7 +3381,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:21">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2235,7 +3404,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:21">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2258,7 +3427,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:21">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2281,7 +3450,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:21">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2304,7 +3473,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:21">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2327,7 +3496,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:21">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2350,7 +3519,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:21">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2373,7 +3542,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:21">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2396,7 +3565,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:21">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2419,7 +3588,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:21">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2442,7 +3611,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:21">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2465,7 +3634,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:21">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2488,7 +3657,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:21">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2511,7 +3680,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:21">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2534,7 +3703,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:21">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2557,7 +3726,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:21">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2580,7 +3749,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:21">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2603,7 +3772,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:21">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2626,7 +3795,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:21">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2649,7 +3818,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:21">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2672,7 +3841,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:21">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2695,7 +3864,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:21">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2718,7 +3887,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:21">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2741,7 +3910,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:21">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2764,7 +3933,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:21">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2787,7 +3956,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:21">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2810,7 +3979,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:21">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2833,7 +4002,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:21">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2856,7 +4025,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:21">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2879,7 +4048,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:21">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2902,7 +4071,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:21">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2925,7 +4094,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:21">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2948,7 +4117,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:21">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2971,7 +4140,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:21">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2994,7 +4163,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:21">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3017,7 +4186,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:21">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3040,7 +4209,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:21">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3063,7 +4232,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:21">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3086,7 +4255,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:21">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3109,7 +4278,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:21">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3132,7 +4301,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:21">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3155,7 +4324,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:21">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3178,7 +4347,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:21">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3201,7 +4370,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:21">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3224,7 +4393,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:21">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3247,7 +4416,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:21">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3270,7 +4439,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:21">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3293,7 +4462,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:21">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3316,7 +4485,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:21">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3339,7 +4508,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:21">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3362,7 +4531,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:21">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3385,7 +4554,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:21">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3408,7 +4577,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:21">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3431,7 +4600,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:21">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3454,7 +4623,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:21">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3477,7 +4646,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:21">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3500,7 +4669,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:21">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3523,7 +4692,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:21">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3546,7 +4715,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:21">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3569,7 +4738,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:21">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3592,7 +4761,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:21">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3615,7 +4784,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:21">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3638,7 +4807,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:21">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3661,7 +4830,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:21">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3684,7 +4853,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:21">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3707,7 +4876,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:21">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3730,7 +4899,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:21">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3753,7 +4922,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:21">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3776,7 +4945,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:21">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3799,7 +4968,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:21">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3822,7 +4991,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:21">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3845,7 +5014,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:21">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3868,7 +5037,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:21">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3891,7 +5060,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:21">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3914,7 +5083,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:21">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3937,7 +5106,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:21">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3960,7 +5129,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:21">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3983,7 +5152,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:21">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4006,7 +5175,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:21">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4029,7 +5198,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:21">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4052,7 +5221,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:21">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4075,7 +5244,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:21">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4098,7 +5267,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:21">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4121,7 +5290,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4144,7 +5313,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4167,7 +5336,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:21">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4190,7 +5359,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:21">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4213,7 +5382,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:21">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4236,7 +5405,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:21">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4259,7 +5428,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:21">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4282,7 +5451,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:21">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4305,7 +5474,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:21">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4328,7 +5497,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:21">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4351,7 +5520,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:21">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4374,7 +5543,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:21">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4397,7 +5566,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:21">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4420,7 +5589,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:21">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4443,7 +5612,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:21">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4466,7 +5635,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:21">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4489,7 +5658,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:21">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4512,7 +5681,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:21">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4535,7 +5704,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:21">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4558,7 +5727,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:21">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4581,7 +5750,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:21">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4604,7 +5773,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:21">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4627,7 +5796,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:21">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4650,7 +5819,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:21">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4673,7 +5842,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:21">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4696,7 +5865,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:21">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4719,7 +5888,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:21">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4742,7 +5911,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:21">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4765,7 +5934,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:21">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4788,7 +5957,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:21">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4811,7 +5980,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:21">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4834,7 +6003,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:21">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4857,7 +6026,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:21">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4880,7 +6049,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:21">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4903,7 +6072,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:21">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4927,13 +6096,9 @@
       <c r="U200" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Hip_臀部.xlsx
+++ b/rp/Excel/Hip_臀部.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>Int</t>
   </si>
@@ -89,7 +89,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -111,6 +111,11 @@
       <sz val="9.8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -573,21 +578,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,119 +598,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -721,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1257,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.025" defaultRowHeight="16.5"/>
@@ -2139,12 +2147,20 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="1"/>
+    <row r="29" ht="17.25" spans="1:21">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="5">
+        <v>348230</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2162,12 +2178,20 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1"/>
+    <row r="30" ht="17.25" spans="1:21">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="5">
+        <v>323953</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
